--- a/SuRGE_Sharepoint/data/NAR/CH4_065_Weatherhead_Hollow_Pond/dataSheets/surgeData065.xlsx
+++ b/SuRGE_Sharepoint/data/NAR/CH4_065_Weatherhead_Hollow_Pond/dataSheets/surgeData065.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/NAR/CH4_065_Weatherhead_Hollow_Pond/dataSheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/beaulieu_jake_epa_gov/Documents/gitRepository/SuRGE/SuRGE_Sharepoint/data/NAR/CH4_065_Weatherhead_Hollow_Pond/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="692" documentId="8_{B3F129CB-A784-43F4-BF18-FB1120257935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9210E63E-9B3B-43DD-9752-47D01CECFF07}"/>
+  <xr:revisionPtr revIDLastSave="693" documentId="8_{B3F129CB-A784-43F4-BF18-FB1120257935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{598AC4D9-2F13-4516-8DCC-7A4F05C58481}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="34560" windowHeight="13560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1527,9 +1527,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1567,7 +1567,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1673,7 +1673,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1815,7 +1815,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1833,83 +1833,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BX32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AY9" sqref="AY9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AZ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BR17" sqref="BR17:BT17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.54296875" customWidth="1"/>
-    <col min="12" max="12" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.7265625" customWidth="1"/>
-    <col min="19" max="19" width="17.26953125" customWidth="1"/>
-    <col min="20" max="21" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="12.453125" customWidth="1"/>
-    <col min="26" max="26" width="22.26953125" customWidth="1"/>
-    <col min="27" max="27" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5546875" customWidth="1"/>
+    <col min="12" max="12" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.77734375" customWidth="1"/>
+    <col min="19" max="19" width="17.21875" customWidth="1"/>
+    <col min="20" max="21" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="12.44140625" customWidth="1"/>
+    <col min="26" max="26" width="22.21875" customWidth="1"/>
+    <col min="27" max="27" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="9" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.453125" customWidth="1"/>
-    <col min="33" max="33" width="6.7265625" customWidth="1"/>
-    <col min="34" max="34" width="7.54296875" customWidth="1"/>
+    <col min="32" max="32" width="6.44140625" customWidth="1"/>
+    <col min="33" max="33" width="6.77734375" customWidth="1"/>
+    <col min="34" max="34" width="7.5546875" customWidth="1"/>
     <col min="35" max="35" width="6" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="18" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="13.7265625" customWidth="1"/>
-    <col min="48" max="49" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="13.77734375" customWidth="1"/>
+    <col min="48" max="49" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="8" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="8" customWidth="1"/>
-    <col min="54" max="54" width="7.1796875" customWidth="1"/>
-    <col min="55" max="55" width="9.453125" customWidth="1"/>
-    <col min="56" max="56" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="7.21875" customWidth="1"/>
+    <col min="55" max="55" width="9.44140625" customWidth="1"/>
+    <col min="56" max="56" width="6.21875" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="11" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="10" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="14" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="14" customWidth="1"/>
-    <col min="69" max="69" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="70" max="74" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="70" max="74" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="22.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -1999,7 +1999,7 @@
       <c r="BW1" s="32"/>
       <c r="BX1" s="32"/>
     </row>
-    <row r="2" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>6</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>184</v>
       </c>
@@ -2311,15 +2311,6 @@
       <c r="AI3">
         <v>1.52</v>
       </c>
-      <c r="BR3" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="BS3" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="BT3" s="24" t="s">
-        <v>257</v>
-      </c>
       <c r="BU3">
         <v>2.06</v>
       </c>
@@ -2333,7 +2324,7 @@
         <v>0.65763888888888888</v>
       </c>
     </row>
-    <row r="4" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>184</v>
       </c>
@@ -2437,7 +2428,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="5" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>184</v>
       </c>
@@ -2541,7 +2532,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="6" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>184</v>
       </c>
@@ -2645,7 +2636,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="7" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>184</v>
       </c>
@@ -2749,7 +2740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>184</v>
       </c>
@@ -2853,7 +2844,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>184</v>
       </c>
@@ -2957,7 +2948,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="10" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>184</v>
       </c>
@@ -3061,7 +3052,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="11" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
         <v>184</v>
       </c>
@@ -3163,7 +3154,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="12" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>184</v>
       </c>
@@ -3263,7 +3254,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="13" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
         <v>184</v>
       </c>
@@ -3365,7 +3356,7 @@
         <v>2.2200000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
         <v>184</v>
       </c>
@@ -3469,7 +3460,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="15" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
         <v>184</v>
       </c>
@@ -3549,7 +3540,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
         <v>184</v>
       </c>
@@ -3649,7 +3640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
         <v>184</v>
       </c>
@@ -3748,8 +3739,17 @@
       <c r="BD17">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="18" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="BR17" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="BS17" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="BT17" s="24" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A18" s="24" t="s">
         <v>184</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A19" s="24" t="s">
         <v>184</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
         <v>184</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
         <v>184</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
         <v>184</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
         <v>184</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
         <v>184</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
         <v>184</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
         <v>184</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
         <v>184</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="28" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
         <v>184</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="s">
         <v>184</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="30" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
         <v>184</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A31" s="24" t="s">
         <v>184</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A32" s="24" t="s">
         <v>184</v>
       </c>
@@ -3938,15 +3938,15 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="116.7265625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="49.54296875" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.26953125" style="26"/>
+    <col min="1" max="1" width="17.77734375" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.77734375" style="26" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.21875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>74</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>6</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>7</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>8</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>9</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>10</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>11</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>12</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>13</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>14</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>15</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>16</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>17</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>18</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>19</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>20</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
         <v>21</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>22</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
         <v>101</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>104</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
         <v>23</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
         <v>24</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
         <v>25</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
         <v>26</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
         <v>27</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
         <v>112</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
         <v>113</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>28</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
         <v>29</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="26" t="s">
         <v>30</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="26" t="s">
         <v>31</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="26" t="s">
         <v>32</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="26" t="s">
         <v>33</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="26" t="s">
         <v>34</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="26" t="s">
         <v>35</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="26" t="s">
         <v>36</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="26" t="s">
         <v>37</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="26" t="s">
         <v>38</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="26" t="s">
         <v>39</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="26" t="s">
         <v>40</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="26" t="s">
         <v>41</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="26" t="s">
         <v>42</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="26" t="s">
         <v>43</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="26" t="s">
         <v>44</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
         <v>45</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="26" t="s">
         <v>46</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="26" t="s">
         <v>47</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="26" t="s">
         <v>48</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="26" t="s">
         <v>49</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="26" t="s">
         <v>50</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="26" t="s">
         <v>51</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="26" t="s">
         <v>52</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="26" t="s">
         <v>53</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="26" t="s">
         <v>54</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="26" t="s">
         <v>55</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="26" t="s">
         <v>56</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="26" t="s">
         <v>57</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="26" t="s">
         <v>58</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="26" t="s">
         <v>59</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="26" t="s">
         <v>60</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="26" t="s">
         <v>61</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="26" t="s">
         <v>62</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="26" t="s">
         <v>63</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="26" t="s">
         <v>64</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="26" t="s">
         <v>65</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="26" t="s">
         <v>66</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="26" t="s">
         <v>67</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="26" t="s">
         <v>68</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="26" t="s">
         <v>69</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="26" t="s">
         <v>70</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="26" t="s">
         <v>71</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="26" t="s">
         <v>72</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="26" t="s">
         <v>73</v>
       </c>
@@ -4671,21 +4671,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081A6BD0-DB1A-406D-A526-8D337C57DAFE}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="24"/>
-    <col min="3" max="3" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" customWidth="1"/>
-    <col min="9" max="9" width="14.26953125" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="24"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>5</v>
       </c>
@@ -4701,7 +4701,7 @@
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4735,7 +4735,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>173</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>173</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>173</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>173</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>173</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>173</v>
       </c>
@@ -4926,14 +4926,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.54296875" customWidth="1"/>
-    <col min="3" max="3" width="49.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.5546875" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>154</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>155</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>156</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>157</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>158</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>159</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>160</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>161</v>
       </c>
@@ -5057,20 +5057,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
@@ -5110,6 +5096,20 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5584,9 +5584,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5600,15 +5606,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
-    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
